--- a/data_year/zb/科技/规模以上工业企业产品和工艺创新情况/有产品或工艺创新活动的规模以上工业企业数/按行业分有产品或工艺创新活动的规模以上工业企业数.xlsx
+++ b/data_year/zb/科技/规模以上工业企业产品和工艺创新情况/有产品或工艺创新活动的规模以上工业企业数/按行业分有产品或工艺创新活动的规模以上工业企业数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AT5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1086,6 +1086,148 @@
         <v>269</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>17928</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5071</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1182</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9738</v>
+      </c>
+      <c r="G5" t="n">
+        <v>238293</v>
+      </c>
+      <c r="H5" t="n">
+        <v>14869</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1325</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6725</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3460</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3671</v>
+      </c>
+      <c r="M5" t="n">
+        <v>245005</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1112</v>
+      </c>
+      <c r="O5" t="n">
+        <v>85</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5241</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4558</v>
+      </c>
+      <c r="R5" t="n">
+        <v>386</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3575</v>
+      </c>
+      <c r="T5" t="n">
+        <v>13492</v>
+      </c>
+      <c r="U5" t="n">
+        <v>832</v>
+      </c>
+      <c r="V5" t="n">
+        <v>11684</v>
+      </c>
+      <c r="W5" t="n">
+        <v>106</v>
+      </c>
+      <c r="X5" t="n">
+        <v>972</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>602</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>3981</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2547</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>21526</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3653</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1054</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>72</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>10068</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>4607</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>18725</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21615</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>3446</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>2909</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2731</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>295</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>17158</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>3722</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>18179</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>875</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>5090</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2509</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>338</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
